--- a/data/trans_orig/P20D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAFD2BDA-92D0-4A36-ABBD-447570193FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5241A731-2FD6-4BDA-8CAD-FB8ECB2A6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{268AE1C8-A78B-4C9F-A541-BF57304744A3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{497B2E3B-A546-48C4-8DBE-E9C60BD50CFC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -119,7 +119,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>79,8%</t>
@@ -176,7 +176,7 @@
     <t>67,12%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>56,02%</t>
@@ -233,7 +233,7 @@
     <t>62,29%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>37,86%</t>
@@ -807,7 +807,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97DDE0F-6C59-488D-8FCF-7F3A0DFF941B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F288A8-46FE-4FC6-AB09-59B937E1E339}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P20D_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P20D_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5241A731-2FD6-4BDA-8CAD-FB8ECB2A6748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{92904703-D55F-4858-9954-49F7DC776042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{497B2E3B-A546-48C4-8DBE-E9C60BD50CFC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{26306E9A-6CE0-414D-B0F2-11E2CFA547ED}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="122">
   <si>
     <t>Población que durante el ingreso estuvo acompañada por una mujer casi todo el tiempo en 2023 (Tasa respuesta: 1,85%)</t>
   </si>
@@ -74,7 +74,7 @@
     <t>64,51%</t>
   </si>
   <si>
-    <t>17,65%</t>
+    <t>18,65%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,10 +89,10 @@
     <t>59,13%</t>
   </si>
   <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>35,49%</t>
   </si>
   <si>
-    <t>82,35%</t>
+    <t>81,35%</t>
   </si>
   <si>
     <t>55,71%</t>
@@ -110,10 +110,10 @@
     <t>40,87%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>79,79%</t>
   </si>
   <si>
     <t>100%</t>
@@ -125,55 +125,55 @@
     <t>79,8%</t>
   </si>
   <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
   </si>
   <si>
     <t>26,16%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
   </si>
   <si>
     <t>53,86%</t>
   </si>
   <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>48,61%</t>
   </si>
   <si>
     <t>73,84%</t>
   </si>
   <si>
-    <t>46,91%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>46,14%</t>
   </si>
   <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -182,106 +182,112 @@
     <t>56,02%</t>
   </si>
   <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>60,83%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>70,83%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
     <t>30,64%</t>
   </si>
   <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,16%</t>
-  </si>
-  <si>
-    <t>76,83%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>58,7%</t>
   </si>
   <si>
     <t>59,84%</t>
   </si>
   <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
+    <t>29,17%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
   </si>
   <si>
     <t>40,55%</t>
   </si>
   <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -290,109 +296,109 @@
     <t>79,76%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
   </si>
   <si>
     <t>29,15%</t>
   </si>
   <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
   </si>
   <si>
     <t>55,75%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>68,96%</t>
+    <t>40,46%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
   </si>
   <si>
     <t>20,24%</t>
   </si>
   <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
   </si>
   <si>
     <t>70,85%</t>
   </si>
   <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
   </si>
   <si>
     <t>44,25%</t>
   </si>
   <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>59,54%</t>
   </si>
   <si>
     <t>71,31%</t>
   </si>
   <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>38,53%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>56,5%</t>
   </si>
   <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>64,41%</t>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>28,69%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>61,47%</t>
   </si>
   <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
   </si>
   <si>
     <t>43,5%</t>
   </si>
   <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>52,06%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>52,4%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -807,7 +813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F288A8-46FE-4FC6-AB09-59B937E1E339}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A23434-16BA-4513-9A84-20D137ED3A95}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1396,13 +1402,13 @@
         <v>10224</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1411,13 +1417,13 @@
         <v>3039</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>16</v>
@@ -1426,13 +1432,13 @@
         <v>13263</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1447,13 +1453,13 @@
         <v>4516</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -1462,13 +1468,13 @@
         <v>4528</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M14" s="7">
         <v>11</v>
@@ -1477,13 +1483,13 @@
         <v>9045</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1539,7 +1545,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1551,13 +1557,13 @@
         <v>16721</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -1566,13 +1572,13 @@
         <v>5516</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M16" s="7">
         <v>32</v>
@@ -1581,13 +1587,13 @@
         <v>22237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1602,13 +1608,13 @@
         <v>4244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H17" s="7">
         <v>20</v>
@@ -1617,13 +1623,13 @@
         <v>13407</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -1632,13 +1638,13 @@
         <v>17652</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1706,13 +1712,13 @@
         <v>46508</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H19" s="7">
         <v>33</v>
@@ -1721,13 +1727,13 @@
         <v>20695</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M19" s="7">
         <v>89</v>
@@ -1736,13 +1742,13 @@
         <v>67204</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1757,13 +1763,13 @@
         <v>18715</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H20" s="7">
         <v>52</v>
@@ -1772,13 +1778,13 @@
         <v>33022</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -1787,13 +1793,13 @@
         <v>51736</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,7 +1855,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
